--- a/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
+++ b/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A591A-B262-4A39-BBF9-C77757238948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AEDD3-94BB-4F23-83BA-BE3436842065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="21" activeTab="24" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="7" activeTab="13" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's Names" sheetId="84" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="364">
   <si>
     <t>Browser</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>456-04-2732</t>
-  </si>
-  <si>
     <t>ResetPassword</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>EmployeeNameValue</t>
   </si>
   <si>
-    <t>BALES</t>
-  </si>
-  <si>
     <t>ChangeCompanyName</t>
   </si>
   <si>
@@ -1222,9 +1216,6 @@
     <t>Draper</t>
   </si>
   <si>
-    <t>A0F21</t>
-  </si>
-  <si>
     <t>SearchEmpName</t>
   </si>
   <si>
@@ -1459,22 +1450,46 @@
     <t>VerifyTabs</t>
   </si>
   <si>
-    <t>JMartin123</t>
-  </si>
-  <si>
-    <t>JMartin123$</t>
-  </si>
-  <si>
-    <t>https://mfcdev05.frankcrum.com</t>
-  </si>
-  <si>
-    <t>mfcdev05.frankcrum.com</t>
-  </si>
-  <si>
     <t>TC's ID</t>
   </si>
   <si>
     <t>Sutus</t>
+  </si>
+  <si>
+    <t>https://stagingmfc.frankcrum.com/login</t>
+  </si>
+  <si>
+    <t>stagingmfc.frankcrum.com</t>
+  </si>
+  <si>
+    <t>masscompany</t>
+  </si>
+  <si>
+    <t>Crum2017</t>
+  </si>
+  <si>
+    <t>Bibin</t>
+  </si>
+  <si>
+    <t>264-61-6408</t>
+  </si>
+  <si>
+    <t>Batura</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>EmployeeNumber</t>
+  </si>
+  <si>
+    <t>I9verifiedValue</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>IT, FC</t>
   </si>
 </sst>
 </file>
@@ -6554,8 +6569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C813351E-8310-45BF-8BFF-3973B1501622}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,351 +6580,351 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7035,23 +7050,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -7109,23 +7124,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -7183,23 +7198,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -7257,23 +7272,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -7284,10 +7299,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850E3F-9286-4039-8FF3-7EBEAC00E833}">
-  <dimension ref="A1:BB22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7346,7 +7361,7 @@
     <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -7369,148 +7384,154 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="BC1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -7518,23 +7539,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -7543,19 +7564,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -7573,31 +7594,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="AB2" s="6" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -7606,43 +7627,43 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="AH2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>93</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44501</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -7660,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -7677,93 +7698,99 @@
       <c r="BB2" s="11">
         <v>456</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC2" s="11">
+        <v>12345</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="U3" s="3"/>
       <c r="AO3" s="13"/>
       <c r="AX3" s="14"/>
       <c r="AY3" s="14"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J4" s="3"/>
       <c r="AO4" s="13"/>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J5" s="3"/>
       <c r="AO5" s="13"/>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J6" s="3"/>
       <c r="AO6" s="13"/>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J7" s="3"/>
       <c r="AO7" s="13"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J8" s="3"/>
       <c r="AO8" s="13"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J9" s="3"/>
       <c r="U9" s="3"/>
       <c r="AO9" s="13"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
       <c r="U10" s="3"/>
       <c r="AO10" s="13"/>
       <c r="AX10" s="14"/>
       <c r="AY10" s="14"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="U11" s="3"/>
       <c r="AO11" s="13"/>
       <c r="AX11" s="14"/>
       <c r="AY11" s="14"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J12" s="3"/>
       <c r="U12" s="3"/>
       <c r="AO12" s="13"/>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J13" s="3"/>
       <c r="U13" s="3"/>
       <c r="AO13" s="13"/>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J14" s="3"/>
       <c r="U14" s="3"/>
       <c r="AO14" s="13"/>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J15" s="3"/>
       <c r="U15" s="3"/>
       <c r="AO15" s="13"/>
       <c r="AX15" s="14"/>
       <c r="AY15" s="14"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J16" s="3"/>
       <c r="AO16" s="13"/>
       <c r="AX16" s="14"/>
@@ -7852,148 +7879,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -8004,23 +8031,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -8029,19 +8056,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -8059,31 +8086,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8092,31 +8119,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -8128,7 +8155,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8146,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8164,7 +8191,7 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8223,148 +8250,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -8375,23 +8402,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -8400,19 +8427,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -8430,31 +8457,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8463,31 +8490,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -8499,7 +8526,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8517,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8594,148 +8621,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -8746,23 +8773,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -8771,19 +8798,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -8801,31 +8828,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8834,31 +8861,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -8870,7 +8897,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8888,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8964,148 +8991,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -9116,23 +9143,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -9141,19 +9168,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9171,31 +9198,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -9204,31 +9231,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -9240,7 +9267,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9258,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9334,148 +9361,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -9486,23 +9513,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -9511,19 +9538,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9541,31 +9568,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -9574,31 +9601,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -9610,7 +9637,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9628,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9665,7 +9692,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9703,29 +9730,29 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
         <v>355</v>
       </c>
-      <c r="C2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>274</v>
+      <c r="F2" s="11">
+        <v>99999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F054002D-5E84-4C68-BD1B-03E8DC9A7FA7}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EBDF7E10-DDE0-4AA8-850A-DB1E73091432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9777,148 +9804,148 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BA1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
@@ -9929,23 +9956,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
@@ -9954,19 +9981,19 @@
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9984,31 +10011,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -10017,31 +10044,31 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
@@ -10053,7 +10080,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -10071,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -10089,7 +10116,7 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -10145,10 +10172,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10159,26 +10186,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10228,10 +10255,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10242,26 +10269,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10310,10 +10337,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10324,26 +10351,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9">
         <v>41701</v>
@@ -10393,10 +10420,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10407,26 +10434,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10443,7 +10470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC63D59-16CA-43F4-8521-97C3F58BEB0E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10470,7 +10497,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10481,26 +10508,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10542,7 +10569,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10553,26 +10580,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10644,37 +10671,37 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="R1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -10685,56 +10712,56 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L2" s="15">
         <v>24230</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10824,76 +10851,76 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10903,41 +10930,41 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>234565434</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N2" s="17">
         <v>34525</v>
@@ -10949,13 +10976,13 @@
         <v>43657</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T2" s="5">
         <v>2345677654</v>
@@ -10973,25 +11000,25 @@
         <v>6498765434</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -11153,10 +11180,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -11167,29 +11194,29 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -11244,19 +11271,19 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
+        <v>Crum2017</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11350,7 +11377,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11361,26 +11388,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11422,13 +11449,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11439,32 +11466,32 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -11516,40 +11543,40 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -11560,26 +11587,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45</v>
@@ -11588,31 +11615,31 @@
         <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L2" s="17">
         <v>44290</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O2" s="17">
         <v>44290</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -11719,40 +11746,40 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
@@ -11763,29 +11790,29 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J2" s="15">
         <v>44464</v>
@@ -11794,7 +11821,7 @@
         <v>44433</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M2" s="15">
         <v>44444</v>
@@ -11806,10 +11833,10 @@
         <v>44433</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="R2" s="28">
         <v>1300</v>
@@ -11974,34 +12001,34 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R1" s="6"/>
     </row>
@@ -12013,32 +12040,32 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K2" s="19">
         <v>111900659</v>
@@ -12053,13 +12080,13 @@
         <v>87665455678</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P2" s="3">
         <v>12</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12149,16 +12176,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12169,32 +12196,32 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="20">
         <v>111900659</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K2" s="20">
         <v>50</v>
@@ -12245,7 +12272,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12256,26 +12283,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12317,10 +12344,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12331,26 +12358,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>6645</v>
@@ -12395,7 +12422,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12406,26 +12433,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12471,13 +12498,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12488,26 +12515,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="21">
         <v>8000</v>
@@ -12566,7 +12593,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="str">
         <f>Common_data!A2</f>
@@ -12574,23 +12601,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -12636,13 +12663,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12653,26 +12680,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="23">
         <v>43949</v>
@@ -12781,10 +12808,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12795,29 +12822,29 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -12866,31 +12893,31 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -12901,32 +12928,32 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K2" s="25">
         <v>44287</v>
@@ -13072,13 +13099,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13089,26 +13116,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1500</v>
@@ -13162,19 +13189,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -13185,38 +13212,38 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13279,19 +13306,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13302,38 +13329,38 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -13375,10 +13402,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13389,29 +13416,29 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -13456,22 +13483,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -13482,29 +13509,29 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J2" s="3">
         <v>12345</v>
@@ -13516,7 +13543,7 @@
         <v>44652</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -13629,10 +13656,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13643,26 +13670,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1234577</v>
@@ -13707,7 +13734,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -13718,26 +13745,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -13795,23 +13822,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -13858,19 +13885,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13881,38 +13908,38 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="15">
         <v>44294</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14034,13 +14061,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14051,26 +14078,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="23">
         <v>44425</v>
@@ -14179,7 +14206,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14190,26 +14217,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -14258,19 +14285,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14281,35 +14308,35 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" s="15">
         <v>44440</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L2" s="15">
         <v>44445</v>
@@ -14383,23 +14410,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14449,23 +14476,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14533,23 +14560,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14599,23 +14626,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14665,23 +14692,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14731,23 +14758,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14760,7 +14787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2CB7EC-835E-486A-A575-A08C76762542}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14798,10 +14827,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14811,29 +14840,29 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -14883,23 +14912,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -14949,23 +14978,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -15015,23 +15044,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -15073,7 +15102,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15084,26 +15113,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -15153,23 +15182,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -15228,23 +15257,23 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -15257,8 +15286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E68A41-B413-444C-9FDE-90DC0482E2E8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15313,7 +15342,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15321,20 +15350,20 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2">
-        <v>23713</v>
+        <v>357</v>
+      </c>
+      <c r="F2" s="29">
+        <v>25286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -15365,7 +15394,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15402,10 +15431,10 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -15418,26 +15447,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>24230</v>
+        <v>357</v>
+      </c>
+      <c r="F2" s="29">
+        <v>25286</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -15455,7 +15484,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15491,12 +15520,12 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15504,26 +15533,26 @@
       </c>
       <c r="C2" s="6" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -15575,7 +15604,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15585,23 +15614,23 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2">
         <v>60307</v>
@@ -15658,19 +15687,19 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -15680,26 +15709,26 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>1200</v>
@@ -15795,7 +15824,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15805,26 +15834,26 @@
       </c>
       <c r="C2" t="str">
         <f>Common_data!B2</f>
-        <v>https://mfcdev05.frankcrum.com</v>
+        <v>https://stagingmfc.frankcrum.com/login</v>
       </c>
       <c r="D2" t="str">
         <f>Common_data!C2</f>
-        <v>mfcdev05.frankcrum.com</v>
+        <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>JMartin123</v>
+        <v>masscompany</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>JMartin123$</v>
-      </c>
-      <c r="G2" t="str">
+        <v>Crum2017</v>
+      </c>
+      <c r="G2">
         <f>Common_data!F2</f>
-        <v>A0F21</v>
+        <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
+++ b/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AEDD3-94BB-4F23-83BA-BE3436842065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A0ABE-7CD1-474B-B3F5-E51449DD3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="7" activeTab="13" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="65" activeTab="70" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's Names" sheetId="84" r:id="rId1"/>
@@ -46,41 +46,44 @@
     <sheet name="Employee_Personal_Tb_Cnts_EEOI9" sheetId="58" r:id="rId31"/>
     <sheet name="Employee_JobPay_Tab" sheetId="59" r:id="rId32"/>
     <sheet name="Employee_Deduction_Tab_Add" sheetId="79" r:id="rId33"/>
-    <sheet name="Employee_Direct_Deposit_Tab_Add" sheetId="60" r:id="rId34"/>
-    <sheet name="Employee_Direct_D_Tab_Edit" sheetId="61" r:id="rId35"/>
-    <sheet name="Employee_D_Deposit_Deactivate" sheetId="62" r:id="rId36"/>
-    <sheet name="Employee_Taxes_Tab_Add_Location" sheetId="63" r:id="rId37"/>
-    <sheet name="Employee_Taxes_Tab_EditLocation" sheetId="64" r:id="rId38"/>
-    <sheet name="Employee_Taxes_Tab_Taxes_Edit" sheetId="65" r:id="rId39"/>
-    <sheet name="Employee_Pay_History_Tab" sheetId="66" r:id="rId40"/>
-    <sheet name="Employee_Pay_PTO_Tab" sheetId="67" r:id="rId41"/>
-    <sheet name="Employee_Pay_PTOSetup_Tab_Add" sheetId="68" r:id="rId42"/>
-    <sheet name="Employee_Pay_PTOSetup_Tab_Edit" sheetId="69" r:id="rId43"/>
-    <sheet name="Employee_Documents_Upload_Valid" sheetId="70" r:id="rId44"/>
-    <sheet name="Employee_Documents_Uplo_Invalid" sheetId="71" r:id="rId45"/>
-    <sheet name="Employee_Lic_Manage_Lic_Code" sheetId="72" r:id="rId46"/>
-    <sheet name="Employee_Licenses_tab_Add_Lic" sheetId="73" r:id="rId47"/>
-    <sheet name="Employee_Licenses_tab_Edit_Lic" sheetId="74" r:id="rId48"/>
-    <sheet name="Employee_History_tab" sheetId="75" r:id="rId49"/>
-    <sheet name="Employee_TerminateActive" sheetId="76" r:id="rId50"/>
-    <sheet name="Employee_W2_&amp;_Docs_My_W-2s" sheetId="78" r:id="rId51"/>
-    <sheet name="Resources_My_Resources" sheetId="80" r:id="rId52"/>
-    <sheet name="Resources_Content_Manager" sheetId="81" r:id="rId53"/>
-    <sheet name="Resources_FrankCrum_Team" sheetId="82" r:id="rId54"/>
-    <sheet name="Employee_Home_Paychecks" sheetId="83" r:id="rId55"/>
-    <sheet name="Payroll(Time Entry)" sheetId="20" r:id="rId56"/>
-    <sheet name="Documents_W-2s" sheetId="21" r:id="rId57"/>
-    <sheet name="PTO_Request" sheetId="22" r:id="rId58"/>
-    <sheet name="Employee_Dashboard" sheetId="23" r:id="rId59"/>
-    <sheet name="Paycheck_History" sheetId="24" r:id="rId60"/>
-    <sheet name="Paycheck_Details" sheetId="25" r:id="rId61"/>
-    <sheet name="Current_Paycheck" sheetId="26" r:id="rId62"/>
-    <sheet name="Balance_Overview" sheetId="27" r:id="rId63"/>
-    <sheet name="Employee_Status_Tab" sheetId="28" r:id="rId64"/>
-    <sheet name="Select_Company&amp;Home" sheetId="2" r:id="rId65"/>
-    <sheet name="Create Account" sheetId="5" r:id="rId66"/>
-    <sheet name="Reset Password" sheetId="6" r:id="rId67"/>
-    <sheet name="VerifyTabs" sheetId="7" r:id="rId68"/>
+    <sheet name="Employee_Deduction_Tab_Edit" sheetId="85" r:id="rId34"/>
+    <sheet name="Employee_Direct_Deposit_Tab_Add" sheetId="60" r:id="rId35"/>
+    <sheet name="Employee_Direct_D_Tab_Edit" sheetId="61" r:id="rId36"/>
+    <sheet name="Employee_D_Deposit_Deactivate" sheetId="62" r:id="rId37"/>
+    <sheet name="Employee_Taxes_Tab_Add_Location" sheetId="63" r:id="rId38"/>
+    <sheet name="Employee_Taxes_Tab_EditLocation" sheetId="64" r:id="rId39"/>
+    <sheet name="Employee_Taxes_Tab_Taxes_Edit" sheetId="65" r:id="rId40"/>
+    <sheet name="Employee_Pay_History_Tab" sheetId="66" r:id="rId41"/>
+    <sheet name="Employee_Pay_PTO_Tab" sheetId="67" r:id="rId42"/>
+    <sheet name="Employee_Pay_PTOSetup_Tab_Add" sheetId="68" r:id="rId43"/>
+    <sheet name="Employee_Pay_PTOSetup_Tab_Edit" sheetId="69" r:id="rId44"/>
+    <sheet name="Employee_Documents_Upload_Valid" sheetId="70" r:id="rId45"/>
+    <sheet name="Employee_Documents_Uplo_Invalid" sheetId="71" r:id="rId46"/>
+    <sheet name="Employee_Lic_Manage_Lic_Code" sheetId="72" r:id="rId47"/>
+    <sheet name="Employee_Licenses_tab_Add_Lic" sheetId="73" r:id="rId48"/>
+    <sheet name="Employee_Licenses_tab_Edit_Lic" sheetId="74" r:id="rId49"/>
+    <sheet name="Employee_History_tab" sheetId="75" r:id="rId50"/>
+    <sheet name="Employee_TerminateActive" sheetId="76" r:id="rId51"/>
+    <sheet name="Employee_W2_&amp;_Docs_My_W-2s" sheetId="78" r:id="rId52"/>
+    <sheet name="Resources_My_Resources" sheetId="80" r:id="rId53"/>
+    <sheet name="Resources_Content_Manager" sheetId="81" r:id="rId54"/>
+    <sheet name="Resources_FrankCrum_Team" sheetId="82" r:id="rId55"/>
+    <sheet name="Employee_Home_Paychecks" sheetId="83" r:id="rId56"/>
+    <sheet name="Payroll(Time Entry)" sheetId="20" r:id="rId57"/>
+    <sheet name="Documents_W-2s" sheetId="21" r:id="rId58"/>
+    <sheet name="PTO_Request" sheetId="22" r:id="rId59"/>
+    <sheet name="Employee_Dashboard" sheetId="23" r:id="rId60"/>
+    <sheet name="Paycheck_History" sheetId="24" r:id="rId61"/>
+    <sheet name="Paycheck_Details" sheetId="25" r:id="rId62"/>
+    <sheet name="Current_Paycheck" sheetId="26" r:id="rId63"/>
+    <sheet name="Balance_Overview" sheetId="27" r:id="rId64"/>
+    <sheet name="Employee_Status_Tab" sheetId="28" r:id="rId65"/>
+    <sheet name="Select_Company&amp;Home" sheetId="2" r:id="rId66"/>
+    <sheet name="Create Account" sheetId="5" r:id="rId67"/>
+    <sheet name="Reset Password" sheetId="6" r:id="rId68"/>
+    <sheet name="VerifyTabs" sheetId="7" r:id="rId69"/>
+    <sheet name="Onboarding_Search" sheetId="86" r:id="rId70"/>
+    <sheet name="Onboarding_No_Hire_Employee" sheetId="87" r:id="rId71"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,6 +171,64 @@
           </rPr>
           <t>Date Format:
 MM/DD/YYYY</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sadanand Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{88B3D6FA-0025-481D-A69E-7E83DAB7513D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For Employee Status Enter Status Code as below 
+0 - All
+132 - Pending Employee
+133 - Pending Employer
+134 - Pending FrankCrum
+269 - Not Hired</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sadanand Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{792F5F15-8BEE-4988-8D77-403E56F1B6AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For Employee Status Enter Status Code as below 
+0 - All
+132 - Pending Employee
+133 - Pending Employer
+134 - Pending FrankCrum
+269 - Not Hired</t>
         </r>
       </text>
     </comment>
@@ -375,30 +436,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="378">
   <si>
     <t>Browser</t>
   </si>
@@ -640,9 +679,6 @@
     <t>EmployeeTypeValue</t>
   </si>
   <si>
-    <t>SEASONAL</t>
-  </si>
-  <si>
     <t>FLSAStatus</t>
   </si>
   <si>
@@ -652,9 +688,6 @@
     <t>DepartmentValues</t>
   </si>
   <si>
-    <t>0008 - 0008</t>
-  </si>
-  <si>
     <t>CostItemValue</t>
   </si>
   <si>
@@ -673,9 +706,6 @@
     <t>PayGroup</t>
   </si>
   <si>
-    <t>A0F212</t>
-  </si>
-  <si>
     <t>ScheduledHours</t>
   </si>
   <si>
@@ -691,9 +721,6 @@
     <t>ChildrenAmount</t>
   </si>
   <si>
-    <t>Head of household</t>
-  </si>
-  <si>
     <t>OtherDependentsAmount</t>
   </si>
   <si>
@@ -1174,9 +1201,6 @@
     <t>DeductionCode</t>
   </si>
   <si>
-    <t>401k percent-PERCT</t>
-  </si>
-  <si>
     <t>EmployeeCalcRule</t>
   </si>
   <si>
@@ -1213,9 +1237,6 @@
     <t>Def comp incl $ * percent</t>
   </si>
   <si>
-    <t>Draper</t>
-  </si>
-  <si>
     <t>SearchEmpName</t>
   </si>
   <si>
@@ -1453,9 +1474,6 @@
     <t>TC's ID</t>
   </si>
   <si>
-    <t>Sutus</t>
-  </si>
-  <si>
     <t>https://stagingmfc.frankcrum.com/login</t>
   </si>
   <si>
@@ -1490,6 +1508,69 @@
   </si>
   <si>
     <t>IT, FC</t>
+  </si>
+  <si>
+    <t>Married Filing Jointly</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>account executive</t>
+  </si>
+  <si>
+    <t>AllowancesExemptions</t>
+  </si>
+  <si>
+    <t>743-98-0934</t>
+  </si>
+  <si>
+    <t>743-98-0944</t>
+  </si>
+  <si>
+    <t>EditAllowanceExemption</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Federal_W2_Notice_2018 (2)</t>
+  </si>
+  <si>
+    <t>DocumentDescription</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS-MISC</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Onboarding_Search</t>
+  </si>
+  <si>
+    <t>CompanyID</t>
+  </si>
+  <si>
+    <t>EmployeeStatus</t>
+  </si>
+  <si>
+    <t>COCHRAN</t>
+  </si>
+  <si>
+    <t>MATTHEW</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1582,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1604,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1552,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1629,6 +1717,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3445,6 +3539,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB99F15-7912-47CF-89AD-9AE64960998C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="2476500"/>
+          <a:ext cx="619125" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -3510,7 +3673,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3579,7 +3742,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3648,7 +3811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3717,7 +3880,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3786,7 +3949,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3817,75 +3980,6 @@
         <a:xfrm>
           <a:off x="9001124" y="3238500"/>
           <a:ext cx="657225" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BACK</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Left 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C1B917-5514-4D01-AF9B-BACCB7005C4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="3238499"/>
-          <a:ext cx="638175" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -3997,6 +4091,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C1B917-5514-4D01-AF9B-BACCB7005C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="3238499"/>
+          <a:ext cx="638175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -4062,7 +4225,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4131,7 +4294,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4200,7 +4363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4269,7 +4432,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4338,7 +4501,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4407,7 +4570,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4476,7 +4639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4545,7 +4708,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4576,75 +4739,6 @@
         <a:xfrm>
           <a:off x="7924800" y="2857500"/>
           <a:ext cx="600076" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BACK</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1619249</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Left 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C0CE69-0298-4A84-A612-12D8E619DD5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8067674" y="3047999"/>
-          <a:ext cx="657225" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -4756,6 +4850,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1619249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C0CE69-0298-4A84-A612-12D8E619DD5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067674" y="3047999"/>
+          <a:ext cx="657225" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing51.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -4821,7 +4984,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing52.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4890,7 +5053,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing53.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4959,7 +5122,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing54.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5028,7 +5191,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing55.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5097,7 +5260,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing56.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5166,7 +5329,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing57.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5235,7 +5398,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing58.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5304,7 +5467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing59.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5335,75 +5498,6 @@
         <a:xfrm>
           <a:off x="7924799" y="3047999"/>
           <a:ext cx="676275" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BACK</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing59.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Left 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A611955-46AC-47D2-9C37-FEAC5D9DBCB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924799" y="3238500"/>
-          <a:ext cx="676275" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -5522,6 +5616,75 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A611955-46AC-47D2-9C37-FEAC5D9DBCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924799" y="3238500"/>
+          <a:ext cx="676275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing61.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -5580,7 +5743,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing62.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5649,7 +5812,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing63.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5718,7 +5881,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing64.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5787,7 +5950,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing65.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5856,7 +6019,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing66.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5925,7 +6088,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing67.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5994,7 +6157,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing68.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6268,6 +6431,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6567,10 +6734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C813351E-8310-45BF-8BFF-3973B1501622}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6580,351 +6747,361 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6996,6 +7173,7 @@
     <hyperlink ref="C66" location="'Create Account'!A1" display="Create Account" xr:uid="{7F9BB97B-A1A5-402B-8FB8-A2E367C099FC}"/>
     <hyperlink ref="C67" location="'Reset Password'!A1" display="Reset Password" xr:uid="{E691AAA4-1B30-484E-B704-369856F59D07}"/>
     <hyperlink ref="C68" location="VerifyTabs!A1" display="VerifyTabs" xr:uid="{5E48E458-6F2C-4D08-BD5A-9FA0EA2AE216}"/>
+    <hyperlink ref="C69" location="Employee_Deduction_Tab_Edit!A1" display="Employee_Direct_D_Tab_Edit" xr:uid="{5D13DDCA-2611-4CF0-B6D4-64A9A5EB2091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7299,10 +7477,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850E3F-9286-4039-8FF3-7EBEAC00E833}">
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1:BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,9 +7537,10 @@
     <col min="51" max="51" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -7459,79 +7638,85 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>108</v>
-      </c>
       <c r="BC1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BF1" t="s">
         <v>360</v>
       </c>
-      <c r="BD1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:58" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -7618,7 +7803,7 @@
         <v>64</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -7630,22 +7815,22 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -7657,13 +7842,13 @@
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -7681,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -7702,95 +7887,101 @@
         <v>12345</v>
       </c>
       <c r="BD2" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="U3" s="3"/>
       <c r="AO3" s="13"/>
       <c r="AX3" s="14"/>
       <c r="AY3" s="14"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J4" s="3"/>
       <c r="AO4" s="13"/>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J5" s="3"/>
       <c r="AO5" s="13"/>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J6" s="3"/>
       <c r="AO6" s="13"/>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J7" s="3"/>
       <c r="AO7" s="13"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J8" s="3"/>
       <c r="AO8" s="13"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J9" s="3"/>
       <c r="U9" s="3"/>
       <c r="AO9" s="13"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
       <c r="U10" s="3"/>
       <c r="AO10" s="13"/>
       <c r="AX10" s="14"/>
       <c r="AY10" s="14"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="U11" s="3"/>
       <c r="AO11" s="13"/>
       <c r="AX11" s="14"/>
       <c r="AY11" s="14"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J12" s="3"/>
       <c r="U12" s="3"/>
       <c r="AO12" s="13"/>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J13" s="3"/>
       <c r="U13" s="3"/>
       <c r="AO13" s="13"/>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J14" s="3"/>
       <c r="U14" s="3"/>
       <c r="AO14" s="13"/>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J15" s="3"/>
       <c r="U15" s="3"/>
       <c r="AO15" s="13"/>
       <c r="AX15" s="14"/>
       <c r="AY15" s="14"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="J16" s="3"/>
       <c r="AO16" s="13"/>
       <c r="AX16" s="14"/>
@@ -7835,10 +8026,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B759F6-94FE-435C-98C9-EB5FED6D89E3}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,7 +8047,7 @@
     <col min="53" max="53" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -7954,76 +8145,79 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+      <c r="BD1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -8050,7 +8244,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -8110,7 +8304,7 @@
         <v>64</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8122,40 +8316,40 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44503</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8173,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8191,7 +8385,10 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8208,10 +8405,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB42C12-E62D-42DA-B7D2-285697357AD8}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8227,7 +8424,7 @@
     <col min="53" max="53" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -8325,76 +8522,79 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="BC1" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+      <c r="BD1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -8421,7 +8621,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -8493,40 +8693,40 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44503</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8544,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8563,6 +8763,9 @@
       </c>
       <c r="BC2" s="6">
         <v>130</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8578,10 +8781,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48251E-A051-4AC7-A081-64626377A82F}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8598,7 +8801,7 @@
     <col min="53" max="53" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -8696,76 +8899,82 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -8792,7 +9001,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -8864,40 +9073,40 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44503</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8915,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8934,6 +9143,12 @@
       </c>
       <c r="BC2" s="6">
         <v>18</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>234</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>2351</v>
       </c>
     </row>
   </sheetData>
@@ -8949,10 +9164,385 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98C239-EA6E-4E69-A5BB-E71EC74BC84E}">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView topLeftCell="M1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="30">
+        <v>32935</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="6">
+        <v>33604</v>
+      </c>
+      <c r="P2" s="6">
+        <v>7867675434</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5678</v>
+      </c>
+      <c r="R2" s="6">
+        <v>8767654543</v>
+      </c>
+      <c r="S2" s="6">
+        <v>7656545434</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>5474</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>6647</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>44503</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX2" s="14">
+        <v>111900659</v>
+      </c>
+      <c r="AY2" s="14">
+        <v>111900659</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>87665455678</v>
+      </c>
+      <c r="BA2" s="12">
+        <v>87665455678</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>456</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{721048A4-4399-4F56-B574-C966871F17DA}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{F95A49D4-74B7-4A60-B42C-15C74B9F7621}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C2A29A-596E-4544-B152-835A10BFA545}">
+  <dimension ref="A1:BD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8968,7 +9558,7 @@
     <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -9066,76 +9656,79 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -9162,9 +9755,9 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="9">
+        <v>362</v>
+      </c>
+      <c r="I2" s="30">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -9234,40 +9827,40 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44503</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9285,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9303,377 +9896,10 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{721048A4-4399-4F56-B574-C966871F17DA}"/>
-    <hyperlink ref="U2" r:id="rId2" xr:uid="{F95A49D4-74B7-4A60-B42C-15C74B9F7621}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C2A29A-596E-4544-B152-835A10BFA545}">
-  <dimension ref="A1:BC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="str">
-        <f>Common_data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>Common_data!B2</f>
-        <v>https://stagingmfc.frankcrum.com/login</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>Common_data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>Common_data!D2</f>
-        <v>masscompany</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>Common_data!E2</f>
-        <v>Crum2017</v>
-      </c>
-      <c r="G2" s="6">
-        <f>Common_data!F2</f>
-        <v>99999</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="9">
-        <v>32935</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="6">
-        <v>33604</v>
-      </c>
-      <c r="P2" s="6">
-        <v>7867675434</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>5678</v>
-      </c>
-      <c r="R2" s="6">
-        <v>8767654543</v>
-      </c>
-      <c r="S2" s="6">
-        <v>7656545434</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>5474</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>6647</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="11">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="11">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="13">
-        <v>44442</v>
-      </c>
-      <c r="AP2" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="11">
-        <v>10000</v>
-      </c>
-      <c r="AS2" s="11">
-        <v>1000</v>
-      </c>
-      <c r="AT2" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="11">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX2" s="14">
-        <v>111900659</v>
-      </c>
-      <c r="AY2" s="14">
-        <v>111900659</v>
-      </c>
-      <c r="AZ2" s="11">
-        <v>87665455678</v>
-      </c>
-      <c r="BA2" s="12">
-        <v>87665455678</v>
-      </c>
-      <c r="BB2" s="11">
-        <v>456</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>60</v>
+      <c r="BD2" s="11">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -9692,7 +9918,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9730,16 +9956,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F2" s="11">
         <v>99999</v>
@@ -9747,7 +9973,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9762,10 +9988,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8319FCA4-D2D4-46B5-8FD5-CBEF6C84FD45}">
-  <dimension ref="A1:BC3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9781,7 +10007,7 @@
     <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -9879,76 +10105,79 @@
         <v>79</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -9975,7 +10204,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10047,40 +10276,40 @@
         <v>78</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
       </c>
-      <c r="AM2" s="6" t="s">
-        <v>91</v>
+      <c r="AM2" s="6">
+        <v>99999</v>
       </c>
       <c r="AN2" s="11">
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44442</v>
+        <v>44503</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -10098,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -10116,13 +10345,10 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO3" t="e" cm="1">
-        <f t="array" ref="AO3">cur</f>
-        <v>#NAME?</v>
+        <v>115</v>
+      </c>
+      <c r="BD2" s="11">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -10141,7 +10367,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10205,7 +10431,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10288,7 +10514,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10370,7 +10596,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I2" s="9">
         <v>41701</v>
@@ -10453,7 +10679,7 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10674,34 +10900,34 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="R1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -10734,31 +10960,31 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L2" s="15">
         <v>24230</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>72</v>
@@ -10854,73 +11080,73 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10958,13 +11184,13 @@
         <v>43</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N2" s="17">
         <v>34525</v>
@@ -10976,10 +11202,10 @@
         <v>43657</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>61</v>
@@ -11003,22 +11229,22 @@
         <v>43</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -11183,7 +11409,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -11216,7 +11442,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -11452,10 +11678,10 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11488,10 +11714,10 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -11546,37 +11772,37 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -11615,31 +11841,31 @@
         <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L2" s="17">
         <v>44290</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O2" s="17">
         <v>44290</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -11708,10 +11934,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00BC755-9ADE-45EF-BA12-7112019864A5}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11723,7 +11949,7 @@
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -11749,40 +11975,49 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -11809,64 +12044,73 @@
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="17">
+        <v>44464</v>
+      </c>
+      <c r="K2" s="17">
+        <v>44433</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="15">
-        <v>44464</v>
-      </c>
-      <c r="K2" s="15">
+      <c r="M2" s="17">
+        <v>44444</v>
+      </c>
+      <c r="N2" s="17">
+        <v>44434</v>
+      </c>
+      <c r="O2" s="17">
         <v>44433</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="M2" s="15">
-        <v>44444</v>
-      </c>
-      <c r="N2" s="15">
-        <v>44434</v>
-      </c>
-      <c r="O2" s="15">
-        <v>44433</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R2" s="28">
+      <c r="Q2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="31">
         <v>1300</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="J6" s="15"/>
@@ -11875,7 +12119,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="H7" s="22"/>
       <c r="J7" s="15"/>
@@ -11884,7 +12128,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
       <c r="H8" s="22"/>
       <c r="J8" s="15"/>
@@ -11893,7 +12137,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="J9" s="15"/>
@@ -11902,7 +12146,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G10" s="3"/>
       <c r="H10" s="22"/>
       <c r="J10" s="15"/>
@@ -11911,7 +12155,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G11" s="3"/>
       <c r="H11" s="22"/>
       <c r="J11" s="15"/>
@@ -11920,7 +12164,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="3"/>
       <c r="H12" s="22"/>
       <c r="J12" s="15"/>
@@ -11929,7 +12173,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="J13" s="15"/>
@@ -11938,14 +12182,14 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="M15" s="15"/>
@@ -11960,6 +12204,111 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C60E5-6D17-4A1C-9053-EA531D3DD573}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B9BADB-9535-4AA0-B1D9-944C18245060}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -12004,31 +12353,31 @@
         <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R1" s="6"/>
     </row>
@@ -12062,10 +12411,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K2" s="19">
         <v>111900659</v>
@@ -12080,13 +12429,13 @@
         <v>87665455678</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P2" s="3">
         <v>12</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12138,12 +12487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45B53E-9261-4296-AA9F-C1FBE51302A3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12179,13 +12528,13 @@
         <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12221,7 +12570,7 @@
         <v>111900659</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K2" s="20">
         <v>50</v>
@@ -12239,7 +12588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDA065B-84D7-4BB6-ABAC-97C09BE41C00}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -12311,7 +12660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54C4B23-96D4-4B98-BC37-784FD3453198}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -12347,7 +12696,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12389,7 +12738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003970F6-CEA5-4CBD-813B-8B9CE804A3B4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -12453,94 +12802,6 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2BBA9D-C71A-413E-9C08-698A79873192}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="str">
-        <f>Common_data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>Common_data!B2</f>
-        <v>https://stagingmfc.frankcrum.com/login</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>Common_data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>Common_data!D2</f>
-        <v>masscompany</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>Common_data!E2</f>
-        <v>Crum2017</v>
-      </c>
-      <c r="G2" s="6">
-        <f>Common_data!F2</f>
-        <v>99999</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="21">
-        <v>8000</v>
-      </c>
-      <c r="J2" s="20">
-        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -12627,6 +12888,94 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2BBA9D-C71A-413E-9C08-698A79873192}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21">
+        <v>8000</v>
+      </c>
+      <c r="J2" s="20">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0CA6CD-4F2E-49A9-AF47-D5732E7C7530}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -12666,10 +13015,10 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12775,7 +13124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB59093-8122-49B0-93EB-03666457BE5B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -12811,7 +13160,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12844,7 +13193,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -12853,7 +13202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC23219-A8A0-44AB-AB7E-E0B2BDA44E8D}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -12896,28 +13245,28 @@
         <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -12950,10 +13299,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K2" s="25">
         <v>44287</v>
@@ -13066,7 +13415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA8D60-1407-4236-A0D5-B2AD5B6B1AA9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -13102,10 +13451,10 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13150,7 +13499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B0B007-3074-48EC-B17F-67D3D5C61BB5}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -13192,16 +13541,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -13234,16 +13583,16 @@
         <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13267,7 +13616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346D2454-4870-4095-A96C-EC3C07C8337D}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -13309,16 +13658,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>232</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13351,16 +13700,16 @@
         <v>28</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -13369,7 +13718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC603BA4-D78A-4859-A954-D9CE2EECF28F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -13405,7 +13754,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13438,7 +13787,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -13447,7 +13796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BBA0E2-E9CF-4785-B5D1-9D4BD9734D19}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -13486,19 +13835,19 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -13531,7 +13880,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J2" s="3">
         <v>12345</v>
@@ -13543,7 +13892,7 @@
         <v>44652</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -13623,7 +13972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49285909-F600-4523-84BF-40F4B466A48D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -13659,7 +14008,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13693,78 +14042,6 @@
       </c>
       <c r="I2">
         <v>1234577</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D849888B-D644-4AA0-8048-6B358EEBF2A7}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="str">
-        <f>Common_data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>Common_data!B2</f>
-        <v>https://stagingmfc.frankcrum.com/login</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>Common_data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>Common_data!D2</f>
-        <v>masscompany</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>Common_data!E2</f>
-        <v>Crum2017</v>
-      </c>
-      <c r="G2" s="6">
-        <f>Common_data!F2</f>
-        <v>99999</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -13848,6 +14125,78 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D849888B-D644-4AA0-8048-6B358EEBF2A7}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6075E-C810-479C-BC93-DB00830144F6}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -13888,16 +14237,16 @@
         <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13933,13 +14282,13 @@
         <v>44294</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14024,7 +14373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4CDA12-E5B6-4F3B-992C-9FB53B6598A5}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -14064,10 +14413,10 @@
         <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14173,7 +14522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F008E5-A73C-4590-9192-35D374E5D8EB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -14206,7 +14555,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14236,7 +14585,7 @@
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -14245,7 +14594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8693B50A-52DE-4AFA-A9FE-B4929667D977}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -14285,19 +14634,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14330,13 +14679,13 @@
         <v>44440</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L2" s="15">
         <v>44445</v>
@@ -14369,7 +14718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5859540D-B7AF-4B31-A4F7-0DB7C61E80B9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14435,7 +14784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52AE98E-C3D0-408F-B875-149AB76FCC55}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -14510,7 +14859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9AD150-942B-403B-8447-3681B0DC58DE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14585,7 +14934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800DF75A-EDC9-477C-BFEC-AC1A3BD232B9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14651,78 +15000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD37C58-7BD0-4698-8C55-F7BB0EA8E960}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="str">
-        <f>Common_data!A2</f>
-        <v>Chrome</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>Common_data!B2</f>
-        <v>https://stagingmfc.frankcrum.com/login</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>Common_data!C2</f>
-        <v>stagingmfc.frankcrum.com</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>Common_data!D2</f>
-        <v>masscompany</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>Common_data!E2</f>
-        <v>Crum2017</v>
-      </c>
-      <c r="G2" s="6">
-        <f>Common_data!F2</f>
-        <v>99999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32AD6AC-6ED1-49AD-A256-5C91A34E555A}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14859,10 +15142,10 @@
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -14872,6 +15155,72 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32AD6AC-6ED1-49AD-A256-5C91A34E555A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBCD2D5-6954-4CC8-BFB2-58569A567BC3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -14937,7 +15286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F18793-62A1-48A1-B4B8-63FA8C42E0E3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -15003,7 +15352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F20E67-952F-405A-96E1-C9AD899FF5BE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -15069,7 +15418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC159F-C61E-4C1B-B2A2-345653236004}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -15102,7 +15451,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15132,7 +15481,7 @@
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -15141,7 +15490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7682EF60-447E-44B3-9E9C-D4B002AB2D83}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -15207,7 +15556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B4B3E8-A6A1-44D7-BFE9-D086314D23AA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -15282,7 +15631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E68A41-B413-444C-9FDE-90DC0482E2E8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -15342,7 +15691,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15357,13 +15706,13 @@
         <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F2" s="29">
         <v>25286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -15389,7 +15738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5409371E-5032-4787-A40D-BF70A78EAEAF}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -15454,7 +15803,7 @@
         <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F2" s="29">
         <v>25286</v>
@@ -15479,12 +15828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F1217-43C3-4F91-B214-F9FC30DE926E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15552,7 +15901,7 @@
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -15642,12 +15991,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E4118D-3FB9-4369-8D71-4F0F013C9BAD}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60089</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF7BCE-4E57-4BD7-9F01-9F9FCAD4C275}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>masscompany</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>Crum2017</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Common_data!F2</f>
+        <v>99999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="3">
+        <v>90702</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A47325-606F-49B7-8967-65F58DA6BF3D}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
+++ b/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A0ABE-7CD1-474B-B3F5-E51449DD3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71F2EE-FF25-428F-8EEC-92B0C746CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="65" activeTab="70" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="67" activeTab="72" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's Names" sheetId="84" r:id="rId1"/>
@@ -84,6 +84,8 @@
     <sheet name="VerifyTabs" sheetId="7" r:id="rId69"/>
     <sheet name="Onboarding_Search" sheetId="86" r:id="rId70"/>
     <sheet name="Onboarding_No_Hire_Employee" sheetId="87" r:id="rId71"/>
+    <sheet name="Onboarding_Hire_Employee" sheetId="88" r:id="rId72"/>
+    <sheet name="Pay_Tax_Details" sheetId="89" r:id="rId73"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -214,6 +216,35 @@
   </authors>
   <commentList>
     <comment ref="J2" authorId="0" shapeId="0" xr:uid="{792F5F15-8BEE-4988-8D77-403E56F1B6AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For Employee Status Enter Status Code as below 
+0 - All
+132 - Pending Employee
+133 - Pending Employer
+134 - Pending FrankCrum
+269 - Not Hired</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sadanand Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{276B44B1-AFBA-45AD-9A7B-647E10224F79}">
       <text>
         <r>
           <rPr>
@@ -437,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="385">
   <si>
     <t>Browser</t>
   </si>
@@ -472,9 +503,6 @@
     <t>SocialSecurityNumber</t>
   </si>
   <si>
-    <t>743-98-0932</t>
-  </si>
-  <si>
     <t>DateOfBirth</t>
   </si>
   <si>
@@ -1480,12 +1508,6 @@
     <t>stagingmfc.frankcrum.com</t>
   </si>
   <si>
-    <t>masscompany</t>
-  </si>
-  <si>
-    <t>Crum2017</t>
-  </si>
-  <si>
     <t>Bibin</t>
   </si>
   <si>
@@ -1571,6 +1593,36 @@
   </si>
   <si>
     <t>MATTHEW</t>
+  </si>
+  <si>
+    <t>Onboarding_No_Hire_Employee</t>
+  </si>
+  <si>
+    <t>Onboarding_Hire_Employee</t>
+  </si>
+  <si>
+    <t>743-98-0832</t>
+  </si>
+  <si>
+    <t>8810 - 8810</t>
+  </si>
+  <si>
+    <t>A0F21</t>
+  </si>
+  <si>
+    <t>WSapp123</t>
+  </si>
+  <si>
+    <t>WSapp123$</t>
+  </si>
+  <si>
+    <t>DDollerAmount</t>
+  </si>
+  <si>
+    <t>DDRuleType</t>
+  </si>
+  <si>
+    <t>ChangeDepositDollar</t>
   </si>
 </sst>
 </file>
@@ -5196,15 +5248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5220,8 +5272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="3048000"/>
-          <a:ext cx="666750" cy="419100"/>
+          <a:off x="10344150" y="3381375"/>
+          <a:ext cx="609600" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -6226,6 +6278,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing69.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A83FECC-E167-43D2-A337-020E594AAB2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="2667000"/>
+          <a:ext cx="657225" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6257,6 +6378,144 @@
         <a:xfrm>
           <a:off x="10448925" y="3343275"/>
           <a:ext cx="647700" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing70.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1560E5-5204-4748-AD99-169757213996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="2476500"/>
+          <a:ext cx="657225" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing71.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6419BB7-561F-4549-8125-6144512A91C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="2286000"/>
+          <a:ext cx="657225" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -6431,10 +6690,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6734,10 +6989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C813351E-8310-45BF-8BFF-3973B1501622}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,361 +7002,371 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>373</v>
+      <c r="C70" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7174,6 +7439,9 @@
     <hyperlink ref="C67" location="'Reset Password'!A1" display="Reset Password" xr:uid="{E691AAA4-1B30-484E-B704-369856F59D07}"/>
     <hyperlink ref="C68" location="VerifyTabs!A1" display="VerifyTabs" xr:uid="{5E48E458-6F2C-4D08-BD5A-9FA0EA2AE216}"/>
     <hyperlink ref="C69" location="Employee_Deduction_Tab_Edit!A1" display="Employee_Direct_D_Tab_Edit" xr:uid="{5D13DDCA-2611-4CF0-B6D4-64A9A5EB2091}"/>
+    <hyperlink ref="C70" location="Onboarding_Search!A1" display="Onboarding_Search" xr:uid="{61645BDC-0542-49F7-8633-B95205D27D86}"/>
+    <hyperlink ref="C71" location="Onboarding_No_Hire_Employee!A1" display="Onboarding_No_Hire_Employee" xr:uid="{AA3E49DD-4EA5-499C-B3D5-B108DB6C615D}"/>
+    <hyperlink ref="C72" location="Onboarding_Hire_Employee!A1" display="Onboarding_Hire_Employee" xr:uid="{37B12FB5-1820-4711-82F6-C4F6CDEC0ABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7236,11 +7504,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -7310,11 +7578,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -7384,11 +7652,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -7458,11 +7726,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -7479,8 +7747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41850E3F-9286-4039-8FF3-7EBEAC00E833}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1:BF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,157 +7831,157 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BD1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="BE1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="BF1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="30" x14ac:dyDescent="0.25">
@@ -7732,36 +8000,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -7779,58 +8047,58 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>5474</v>
+        <v>353</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="AD2" s="11">
-        <v>6647</v>
+        <v>99999</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -7842,13 +8110,13 @@
         <v>100</v>
       </c>
       <c r="AO2" s="13">
-        <v>44502</v>
+        <v>44510</v>
       </c>
       <c r="AP2" s="11">
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -7866,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -7887,10 +8155,10 @@
         <v>12345</v>
       </c>
       <c r="BD2" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="BE2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="BF2" s="11">
         <v>234</v>
@@ -8028,8 +8296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B759F6-94FE-435C-98C9-EB5FED6D89E3}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8070,151 +8338,151 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BD1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
@@ -8233,36 +8501,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -8280,31 +8548,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8313,25 +8581,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -8349,7 +8617,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8367,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8385,7 +8653,7 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD2" s="11">
         <v>234</v>
@@ -8447,151 +8715,151 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
@@ -8610,36 +8878,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -8657,31 +8925,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -8690,25 +8958,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -8726,7 +8994,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -8744,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -8824,154 +9092,154 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BD1" t="s">
+        <v>357</v>
+      </c>
+      <c r="BE1" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="45" x14ac:dyDescent="0.25">
@@ -8990,36 +9258,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9037,31 +9305,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -9070,25 +9338,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -9106,7 +9374,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9124,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9204,151 +9472,151 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
@@ -9367,36 +9635,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="30">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9414,31 +9682,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -9447,25 +9715,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -9483,7 +9751,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9501,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9581,151 +9849,151 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
@@ -9744,36 +10012,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="30">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -9791,31 +10059,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -9824,25 +10092,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -9860,7 +10128,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -9878,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -9918,7 +10186,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,16 +10224,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
         <v>345</v>
       </c>
-      <c r="C2" t="s">
-        <v>346</v>
-      </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="F2" s="11">
         <v>99999</v>
@@ -9973,7 +10241,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10030,151 +10298,151 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:56" ht="45" x14ac:dyDescent="0.25">
@@ -10193,36 +10461,36 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="6">
         <v>33604</v>
@@ -10240,31 +10508,31 @@
         <v>7656545434</v>
       </c>
       <c r="T2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="11">
         <v>5474</v>
@@ -10273,25 +10541,25 @@
         <v>6647</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="11">
         <v>100</v>
@@ -10309,7 +10577,7 @@
         <v>10000</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AR2" s="11">
         <v>10000</v>
@@ -10327,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX2" s="14">
         <v>111900659</v>
@@ -10345,7 +10613,7 @@
         <v>456</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BD2" s="11">
         <v>234</v>
@@ -10398,10 +10666,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10420,18 +10688,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10481,10 +10749,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10503,18 +10771,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10563,10 +10831,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10585,18 +10853,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>41701</v>
@@ -10646,10 +10914,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10668,18 +10936,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>32935</v>
@@ -10723,7 +10991,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10742,18 +11010,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10795,7 +11063,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10814,18 +11082,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10897,37 +11165,37 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -10946,48 +11214,48 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
         <v>126</v>
-      </c>
-      <c r="K2" t="s">
-        <v>127</v>
       </c>
       <c r="L2" s="15">
         <v>24230</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -11077,76 +11345,76 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11164,33 +11432,33 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5">
         <v>234565434</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="N2" s="17">
         <v>34525</v>
@@ -11202,13 +11470,13 @@
         <v>43657</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="S2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" s="5">
         <v>2345677654</v>
@@ -11226,25 +11494,25 @@
         <v>6498765434</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -11406,10 +11674,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -11428,21 +11696,21 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -11505,11 +11773,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11603,7 +11871,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11622,18 +11890,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11675,13 +11943,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11700,24 +11968,24 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -11769,40 +12037,40 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -11821,18 +12089,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5">
         <v>45</v>
@@ -11841,31 +12109,31 @@
         <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L2" s="17">
         <v>44290</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O2" s="17">
         <v>44290</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -11972,49 +12240,49 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="R1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
@@ -12033,21 +12301,21 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J2" s="17">
         <v>44464</v>
@@ -12056,7 +12324,7 @@
         <v>44433</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M2" s="17">
         <v>44444</v>
@@ -12068,10 +12336,10 @@
         <v>44433</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R2" s="31">
         <v>1300</v>
@@ -12080,13 +12348,13 @@
         <v>90</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -12208,7 +12476,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12239,19 +12507,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12270,30 +12538,30 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I2">
         <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12350,34 +12618,34 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R1" s="6"/>
     </row>
@@ -12397,24 +12665,24 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="19">
         <v>111900659</v>
@@ -12429,13 +12697,13 @@
         <v>87665455678</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P2" s="3">
         <v>12</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -12525,16 +12793,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12553,24 +12821,24 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="20">
         <v>111900659</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="20">
         <v>50</v>
@@ -12621,7 +12889,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12640,18 +12908,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -12693,10 +12961,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12715,18 +12983,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>6645</v>
@@ -12771,7 +13039,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12790,18 +13058,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -12854,7 +13122,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="str">
         <f>Common_data!A2</f>
@@ -12870,11 +13138,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -12924,13 +13192,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12949,18 +13217,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="21">
         <v>8000</v>
@@ -13012,13 +13280,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13037,18 +13305,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="23">
         <v>43949</v>
@@ -13157,10 +13425,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13179,21 +13447,21 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -13242,31 +13510,31 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="K1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -13285,24 +13553,24 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>217</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>218</v>
       </c>
       <c r="K2" s="25">
         <v>44287</v>
@@ -13448,13 +13716,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13473,18 +13741,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1500</v>
@@ -13538,19 +13806,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>223</v>
-      </c>
       <c r="L1" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -13569,30 +13837,30 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13655,19 +13923,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13686,30 +13954,30 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="26">
         <v>44426</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -13751,10 +14019,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13773,21 +14041,21 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -13832,22 +14100,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -13866,21 +14134,21 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J2" s="3">
         <v>12345</v>
@@ -13892,7 +14160,7 @@
         <v>44652</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -14005,10 +14273,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14027,18 +14295,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1234577</v>
@@ -14107,11 +14375,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -14157,7 +14425,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14176,18 +14444,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -14234,19 +14502,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14265,30 +14533,30 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="15">
         <v>44294</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14410,13 +14678,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14435,18 +14703,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="23">
         <v>44425</v>
@@ -14555,7 +14823,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -14574,18 +14842,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -14634,19 +14902,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14665,11 +14933,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -14679,13 +14947,13 @@
         <v>44440</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" s="15">
         <v>44445</v>
@@ -14767,11 +15035,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -14786,15 +15054,22 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52AE98E-C3D0-408F-B875-149AB76FCC55}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -14816,8 +15091,41 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -14833,18 +15141,51 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3">
+        <v>111900659</v>
+      </c>
+      <c r="J2" s="3">
+        <v>111900659</v>
+      </c>
+      <c r="K2" s="3">
+        <v>87665455678</v>
+      </c>
+      <c r="L2" s="3">
+        <v>87665455678</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="3">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -14852,6 +15193,50 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14917,11 +15302,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -14983,11 +15368,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15049,11 +15434,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15110,10 +15495,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -15131,21 +15516,21 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -15203,11 +15588,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15269,11 +15654,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15335,11 +15720,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15401,11 +15786,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15451,7 +15836,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15470,18 +15855,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -15539,11 +15924,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15614,11 +15999,11 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
@@ -15671,27 +16056,27 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15706,25 +16091,25 @@
         <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F2" s="29">
         <v>25286</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -15774,21 +16159,21 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15803,19 +16188,19 @@
         <v>stagingmfc.frankcrum.com</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F2" s="29">
         <v>25286</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -15833,7 +16218,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15869,12 +16254,12 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="str">
         <f>Common_data!A2</f>
@@ -15890,18 +16275,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -15953,7 +16338,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -15971,11 +16356,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
@@ -15996,7 +16381,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16029,19 +16414,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16059,18 +16444,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I2" s="3">
         <v>60089</v>
@@ -16079,10 +16464,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -16103,7 +16488,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16111,9 +16497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF7BCE-4E57-4BD7-9F01-9F9FCAD4C275}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16143,13 +16527,13 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -16169,18 +16553,18 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2" s="6">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I2" s="3">
         <v>90702</v>
@@ -16193,7 +16577,168 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58911B4-2277-4286-A6EE-B302EB690B96}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="G2">
+        <v>99999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" s="3">
+        <v>134</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373419C5-8635-4E4E-8B0C-44FD5AC0AA24}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>WSapp123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>WSapp123$</v>
+      </c>
+      <c r="G2">
+        <v>99999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16242,19 +16787,19 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -16272,18 +16817,18 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>1200</v>
@@ -16379,7 +16924,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -16397,18 +16942,18 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>masscompany</v>
+        <v>WSapp123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>Crum2017</v>
+        <v>WSapp123$</v>
       </c>
       <c r="G2">
         <f>Common_data!F2</f>
         <v>99999</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
+++ b/MyFrankCrum_EMP/bin/Debug/MasscompanySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFC_Ranorex\MyFrankCrum_EMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71F2EE-FF25-428F-8EEC-92B0C746CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF091B7-D173-416F-A91B-45996EEF3E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="67" activeTab="72" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="801" firstSheet="76" activeTab="79" xr2:uid="{EFEC5B92-3B8D-429A-8DAF-59FD683A57EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC's Names" sheetId="84" r:id="rId1"/>
@@ -86,6 +86,16 @@
     <sheet name="Onboarding_No_Hire_Employee" sheetId="87" r:id="rId71"/>
     <sheet name="Onboarding_Hire_Employee" sheetId="88" r:id="rId72"/>
     <sheet name="Pay_Tax_Details" sheetId="89" r:id="rId73"/>
+    <sheet name="Change_History" sheetId="90" r:id="rId74"/>
+    <sheet name="Submit_Request" sheetId="91" r:id="rId75"/>
+    <sheet name="My_Info_Personal_Details_Tab" sheetId="93" r:id="rId76"/>
+    <sheet name="My_Info_Contacts_tab_Add" sheetId="92" r:id="rId77"/>
+    <sheet name="My_Info_Contacts_tab_Edit" sheetId="94" r:id="rId78"/>
+    <sheet name="Setting_Change_Password" sheetId="95" r:id="rId79"/>
+    <sheet name="Setting_Security_Question" sheetId="96" r:id="rId80"/>
+    <sheet name="Employees_Sort_By" sheetId="97" r:id="rId81"/>
+    <sheet name="Employees_Paging_Control" sheetId="98" r:id="rId82"/>
+    <sheet name="Employee_Search_Key_Value" sheetId="99" r:id="rId83"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="431">
   <si>
     <t>Browser</t>
   </si>
@@ -1610,12 +1620,6 @@
     <t>A0F21</t>
   </si>
   <si>
-    <t>WSapp123</t>
-  </si>
-  <si>
-    <t>WSapp123$</t>
-  </si>
-  <si>
     <t>DDollerAmount</t>
   </si>
   <si>
@@ -1623,18 +1627,163 @@
   </si>
   <si>
     <t>ChangeDepositDollar</t>
+  </si>
+  <si>
+    <t>Pay_Tax_Details</t>
+  </si>
+  <si>
+    <t>Change_History</t>
+  </si>
+  <si>
+    <t>EmployeeSearchName</t>
+  </si>
+  <si>
+    <t>sapp</t>
+  </si>
+  <si>
+    <t>SearchFromDate</t>
+  </si>
+  <si>
+    <t>SearchToDate</t>
+  </si>
+  <si>
+    <t>JMartin123</t>
+  </si>
+  <si>
+    <t>JMartin123$</t>
+  </si>
+  <si>
+    <t>Submit_Request</t>
+  </si>
+  <si>
+    <t>RequestComment</t>
+  </si>
+  <si>
+    <t>My_Info_Personal_Details_Tab</t>
+  </si>
+  <si>
+    <t>NewSSN</t>
+  </si>
+  <si>
+    <t>567-89-0987</t>
+  </si>
+  <si>
+    <t>PersonalMobileNumber</t>
+  </si>
+  <si>
+    <t>My_Info_Contacts_tab_Add</t>
+  </si>
+  <si>
+    <t>My_Info_Contacts_tab_Edit</t>
+  </si>
+  <si>
+    <t>My_Info_Contacts_tab_Delete</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>JMartin123#</t>
+  </si>
+  <si>
+    <t>ConfirmNewPassword</t>
+  </si>
+  <si>
+    <t>NewQuestion</t>
+  </si>
+  <si>
+    <t>ConfirmNewQuestion</t>
+  </si>
+  <si>
+    <t>SecurityQuestion</t>
+  </si>
+  <si>
+    <t>Sortingvalue</t>
+  </si>
+  <si>
+    <t>Last Name: A-Z</t>
+  </si>
+  <si>
+    <t>First Name: A-Z</t>
+  </si>
+  <si>
+    <t>City: A-Z</t>
+  </si>
+  <si>
+    <t>City: Z-A</t>
+  </si>
+  <si>
+    <t>Employee Number: High-Low</t>
+  </si>
+  <si>
+    <t>Employee Number: Low-High</t>
+  </si>
+  <si>
+    <t>Job Title: A-Z</t>
+  </si>
+  <si>
+    <t>Job Title: Z-A</t>
+  </si>
+  <si>
+    <t>Last Name: Z-A</t>
+  </si>
+  <si>
+    <t>State: A-Z</t>
+  </si>
+  <si>
+    <t>State: Z-A</t>
+  </si>
+  <si>
+    <t>SearchEmployee</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Boynton</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Employee number</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Setting_Change_Password</t>
+  </si>
+  <si>
+    <t>Setting_Security_Question</t>
+  </si>
+  <si>
+    <t>Employees_Sort_By</t>
+  </si>
+  <si>
+    <t>Employees_Paging_Control</t>
+  </si>
+  <si>
+    <t>Employee_Search_Key_Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="000000000"/>
+    <numFmt numFmtId="167" formatCode="00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1813,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1692,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1774,6 +1929,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6554,6 +6713,558 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing72.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A98446D-2742-4D2A-9E21-E18501DBE148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1905000"/>
+          <a:ext cx="657225" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing73.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE56BBD-80C0-42D4-B564-1F199A55BDA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1714500"/>
+          <a:ext cx="657225" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing74.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71D777B-A844-4B0D-837A-391400F06AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="1714500"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing75.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF938B7C-8A84-4931-9C65-A2E07D41AAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="2095500"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing76.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F3B631-723D-4A6C-AA50-557FE1B63EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="2857500"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing77.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D93411-C749-4D9B-841B-01EB5715144F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="2667000"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing78.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C296327-589C-4D93-B0E5-3B0E30BBB8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="1905000"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing79.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4621BD0-636A-4394-BF2E-530D52982A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="1905000"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6585,6 +7296,213 @@
         <a:xfrm>
           <a:off x="9591674" y="3047999"/>
           <a:ext cx="695325" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing80.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410A0CCC-1F84-4B7B-B663-1A496DBA9F66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3048000"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing81.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B26068-947A-4F1E-BBF6-DE627BE77C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1905000"/>
+          <a:ext cx="952500" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing82.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Left 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D067A6B-7F8D-4D98-A25A-25F9E83EE469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1905000"/>
+          <a:ext cx="952500" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -6989,10 +7907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C813351E-8310-45BF-8BFF-3973B1501622}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,6 +8285,66 @@
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -7442,6 +8420,18 @@
     <hyperlink ref="C70" location="Onboarding_Search!A1" display="Onboarding_Search" xr:uid="{61645BDC-0542-49F7-8633-B95205D27D86}"/>
     <hyperlink ref="C71" location="Onboarding_No_Hire_Employee!A1" display="Onboarding_No_Hire_Employee" xr:uid="{AA3E49DD-4EA5-499C-B3D5-B108DB6C615D}"/>
     <hyperlink ref="C72" location="Onboarding_Hire_Employee!A1" display="Onboarding_Hire_Employee" xr:uid="{37B12FB5-1820-4711-82F6-C4F6CDEC0ABA}"/>
+    <hyperlink ref="C73" location="Pay_Tax_Details!A1" display="Pay_Tax_Details" xr:uid="{B89E72B1-0CFA-45FF-A577-45FDE86F17CA}"/>
+    <hyperlink ref="C74" location="Change_History!A1" display="Change_History" xr:uid="{8ED1373A-BF70-4F24-A3E7-33D4E73BD40E}"/>
+    <hyperlink ref="C75" location="Submit_Request!A1" display="Submit_Request" xr:uid="{D9B7F4EA-B73A-4882-A2A8-76E834953B5F}"/>
+    <hyperlink ref="C76" location="My_Info_Personal_Details_Tab!A1" display="My_Info_Personal_Details_Tab" xr:uid="{25E64FDD-6B60-4AB3-BE1F-26750B535F92}"/>
+    <hyperlink ref="C77" location="My_Info_Contacts_tab_Add!A1" display="My_Info_Contacts_tab_Add" xr:uid="{0983ED06-A98C-48EF-97A7-FB878173AF80}"/>
+    <hyperlink ref="C78" location="My_Info_Contacts_tab_Edit!A1" display="My_Info_Contacts_tab_Edit" xr:uid="{C0F9B109-ADED-4955-A8AA-71C334605C5F}"/>
+    <hyperlink ref="C79" location="My_Info_Contacts_tab_Edit!A1" display="My_Info_Contacts_tab_Delete" xr:uid="{EA9AE6BA-98CE-421B-BE94-BA0E731DCC6C}"/>
+    <hyperlink ref="C80" location="Setting_Change_Password!A1" display="Setting_Change_Password" xr:uid="{2B52790D-25C5-4651-B609-8C6ED9A4AFD6}"/>
+    <hyperlink ref="C81" location="Setting_Security_Question!A1" display="Setting_Security_Question" xr:uid="{7EE4F583-79DC-4AC1-B764-8FE2A14EE969}"/>
+    <hyperlink ref="C82" location="Employees_Sort_By!A1" display="Employees_Sort_By" xr:uid="{E644D25A-FE98-4655-A24F-1E1B445A6482}"/>
+    <hyperlink ref="C83" location="Employees_Paging_Control!A1" display="Employees_Paging_Control" xr:uid="{937F9ABD-2E2E-4302-B2AA-4F00E9C81E78}"/>
+    <hyperlink ref="C84" location="Employee_Search_Key_Value!A1" display="Employee_Search_Key_Value" xr:uid="{E65084B0-A634-40E8-A1C6-1C81DC55DF77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7504,15 +8494,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -7525,9 +8515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7516B902-347E-47A2-B355-4C0763DB05DB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7578,15 +8566,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -7652,15 +8640,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -7726,15 +8714,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -7748,7 +8736,7 @@
   <dimension ref="A1:BF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8000,15 +8988,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>377</v>
@@ -8501,15 +9489,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>358</v>
@@ -8878,15 +9866,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>359</v>
@@ -9258,15 +10246,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>359</v>
@@ -9635,15 +10623,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>359</v>
@@ -10012,15 +11000,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>359</v>
@@ -10186,7 +11174,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10230,13 +11218,13 @@
         <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" s="11">
-        <v>99999</v>
+        <v>390</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10461,15 +11449,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>359</v>
@@ -10688,15 +11676,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>110</v>
@@ -10771,15 +11759,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>111</v>
@@ -10853,15 +11841,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>111</v>
@@ -10936,15 +11924,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>111</v>
@@ -11010,15 +11998,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -11082,15 +12070,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -11214,15 +12202,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -11432,15 +12420,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -11696,15 +12684,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -11773,11 +12761,11 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
+        <v>JMartin123$</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11890,15 +12878,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -11968,15 +12956,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -12089,15 +13077,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -12301,15 +13289,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>365</v>
@@ -12538,15 +13526,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>365</v>
@@ -12665,15 +13653,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -12821,15 +13809,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -12908,15 +13896,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -12983,15 +13971,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13058,15 +14046,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13083,7 +14071,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13093,7 +14081,7 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13138,15 +14126,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -13217,15 +14205,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13305,15 +14293,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13447,15 +14435,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13553,15 +14541,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13741,15 +14729,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13837,15 +14825,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -13954,15 +14942,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14041,15 +15029,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14134,15 +15122,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14295,15 +15283,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14323,7 +15311,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14375,15 +15363,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -14444,15 +15432,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14533,15 +15521,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14646,7 +15634,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14703,15 +15691,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>27</v>
@@ -14842,15 +15830,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>266</v>
@@ -14933,15 +15921,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="15">
         <v>44440</v>
@@ -15035,15 +16023,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15056,9 +16044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52AE98E-C3D0-408F-B875-149AB76FCC55}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15113,16 +16099,16 @@
         <v>186</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>193</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -15141,15 +16127,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>98</v>
@@ -15302,15 +16288,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15368,15 +16354,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15434,15 +16420,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15516,15 +16502,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -15588,15 +16574,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15654,15 +16640,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15720,15 +16706,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15786,15 +16772,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15855,15 +16841,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>249</v>
@@ -15924,15 +16910,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -15999,15 +16985,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
     </row>
   </sheetData>
@@ -16275,15 +17261,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -16356,15 +17342,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2">
         <v>60307</v>
@@ -16444,15 +17430,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -16497,7 +17483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF7BCE-4E57-4BD7-9F01-9F9FCAD4C275}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16553,15 +17541,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2" s="6">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -16587,7 +17575,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16640,14 +17628,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
-        <v>99999</v>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -16671,8 +17660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373419C5-8635-4E4E-8B0C-44FD5AC0AA24}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16721,14 +17710,15 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
-        <v>99999</v>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>346</v>
@@ -16739,6 +17729,789 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB5621E-0157-4475-8200-EFC233156D96}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="15">
+        <v>44197</v>
+      </c>
+      <c r="J2" s="15">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC360F9-D00F-4A7C-A382-C90488EA0201}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40235281-CECC-429F-99B9-2AA39376230D}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="24">
+        <v>9878787878</v>
+      </c>
+      <c r="J2" s="24">
+        <v>7657575757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0E68E5-14B5-4F1B-AA16-3550EE5990C6}">
+  <dimension ref="A1:AD29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="19" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="3">
+        <v>234565434</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="15">
+        <v>34525</v>
+      </c>
+      <c r="N2" s="15">
+        <v>43657</v>
+      </c>
+      <c r="O2" s="15">
+        <v>43657</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2345677654</v>
+      </c>
+      <c r="T2" s="3">
+        <v>5678765676</v>
+      </c>
+      <c r="U2" s="3">
+        <v>5674567892</v>
+      </c>
+      <c r="V2" s="3">
+        <v>34</v>
+      </c>
+      <c r="W2" s="3">
+        <v>6498765434</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A904C6-CD76-4E4A-A625-C9C8999E4F19}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6498765490</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5674567887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57969A59-57F4-4346-A969-6372E624CD4E}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16817,15 +18590,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -16874,6 +18647,331 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B6D891-A91E-4786-9184-AEA5C9EFA823}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E78EA27-DDF3-4FB6-A8EF-9748FC0BAAC9}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34531535-D6FA-483E-B59A-C136CB5A994F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="str">
+        <f>Common_data!A2</f>
+        <v>Chrome</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>Common_data!B2</f>
+        <v>https://stagingmfc.frankcrum.com/login</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Common_data!C2</f>
+        <v>stagingmfc.frankcrum.com</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>Common_data!D2</f>
+        <v>JMartin123</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>Common_data!E2</f>
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>Common_data!F2</f>
+        <v>A0F21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A526D8CC-9A82-41E9-A252-B82FEA3F6A29}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16942,15 +19040,15 @@
       </c>
       <c r="E2" t="str">
         <f>Common_data!D2</f>
-        <v>WSapp123</v>
+        <v>JMartin123</v>
       </c>
       <c r="F2" t="str">
         <f>Common_data!E2</f>
-        <v>WSapp123$</v>
-      </c>
-      <c r="G2">
+        <v>JMartin123$</v>
+      </c>
+      <c r="G2" t="str">
         <f>Common_data!F2</f>
-        <v>99999</v>
+        <v>A0F21</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
